--- a/zase4kak/bin/Debug/Finaly_of_racing.xlsx
+++ b/zase4kak/bin/Debug/Finaly_of_racing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a17fdde4b84ee0ea/Документы/GitHub/Slotcar-Horodetskylap/zase4kak/bin/Debug/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{BB591B1C-A98C-4165-B0B5-5F512664DC2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6CA6432F-191C-49AC-8ECC-FF79A35ADE02}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3B764FC-0872-48B9-B050-CE817C5A2D56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4174AF7A-987F-4888-B0E6-4060B53A0076}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{AB656D37-885A-43C9-B16C-D0DD5DBBE679}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -36,25 +36,25 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
+    <t>Зелена</t>
+  </si>
+  <si>
+    <t>Щербина Юхим</t>
+  </si>
+  <si>
+    <t>Синя</t>
+  </si>
+  <si>
+    <t>Гураль Тарас</t>
+  </si>
+  <si>
+    <t>Червона</t>
+  </si>
+  <si>
+    <t>Ванкевич Ігор</t>
+  </si>
+  <si>
     <t>Жовта</t>
-  </si>
-  <si>
-    <t>Ванкевич Ігор</t>
-  </si>
-  <si>
-    <t>Зелена</t>
-  </si>
-  <si>
-    <t>Демідов Олексій</t>
-  </si>
-  <si>
-    <t>Синя</t>
-  </si>
-  <si>
-    <t>Щербина Юхим</t>
-  </si>
-  <si>
-    <t>Червона</t>
   </si>
   <si>
     <t>Городецький Олег</t>
@@ -409,17 +409,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97471623-938E-41B2-A946-DBF7FC85F95B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB263037-A33F-4DFD-807B-BA7ADDD5FB55}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="39.28515625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -429,7 +424,7 @@
         <v>1</v>
       </c>
       <c r="C1">
-        <v>0.4</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -440,7 +435,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>0.3</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">

--- a/zase4kak/bin/Debug/Finaly_of_racing.xlsx
+++ b/zase4kak/bin/Debug/Finaly_of_racing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a17fdde4b84ee0ea/Документы/GitHub/Slotcar-Horodetskylap/zase4kak/bin/Debug/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3B764FC-0872-48B9-B050-CE817C5A2D56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E640633F-165E-47B8-9A70-9229AEA8C8F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{AB656D37-885A-43C9-B16C-D0DD5DBBE679}"/>
+    <workbookView xWindow="7200" yWindow="1620" windowWidth="21600" windowHeight="11385" xr2:uid="{0F0E6054-DF79-45C1-A7CD-F60A5CD4DFD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,30 +34,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Зелена</t>
   </si>
   <si>
-    <t>Щербина Юхим</t>
+    <t>Щербина</t>
+  </si>
+  <si>
+    <t>13,2</t>
   </si>
   <si>
     <t>Синя</t>
   </si>
   <si>
-    <t>Гураль Тарас</t>
+    <t>Бабій</t>
+  </si>
+  <si>
+    <t>12,1</t>
+  </si>
+  <si>
+    <t>Жовта</t>
+  </si>
+  <si>
+    <t>Городецький</t>
+  </si>
+  <si>
+    <t>10,2</t>
   </si>
   <si>
     <t>Червона</t>
   </si>
   <si>
-    <t>Ванкевич Ігор</t>
-  </si>
-  <si>
-    <t>Жовта</t>
-  </si>
-  <si>
-    <t>Городецький Олег</t>
+    <t>Смик</t>
+  </si>
+  <si>
+    <t>Оранжева</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>9,3</t>
+  </si>
+  <si>
+    <t>Біла</t>
+  </si>
+  <si>
+    <t>Ванкевич</t>
+  </si>
+  <si>
+    <t>2,1</t>
   </si>
 </sst>
 </file>
@@ -409,8 +436,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB263037-A33F-4DFD-807B-BA7ADDD5FB55}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DEC43D4-904A-499D-9268-2BDD22B6CD19}">
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -423,41 +450,63 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1">
-        <v>0.32</v>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>0.23</v>
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>0.2</v>
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>0.1</v>
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
